--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1781547.176087429</v>
+        <v>-1784407.008322699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14963285.81213266</v>
+        <v>14963285.81213265</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>158.2964914343833</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>187.5255871663201</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>131.9666290116447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>92.73964154763158</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>52.21594625443465</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.6612299361406</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489922</v>
+        <v>12.42254329489923</v>
       </c>
       <c r="H5" t="n">
-        <v>67.365044784803</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.39561335518675</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361406</v>
+        <v>382.6612299361387</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>101.6969950756222</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075473</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295523</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238358</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442028</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>214.6112361762161</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>122.6812911966014</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.53060049107794</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>280.6443299939218</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>214.6100436546128</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="H9" t="n">
-        <v>37.04148396846977</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.11479453445432</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>115.7737510585497</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,13 +1421,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>118.9504156453515</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>217.8886059122772</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>107.9721668030665</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>285.8269508967735</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.2708639270857</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>52.54490042790919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>62.18842302760083</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>86.62626738629423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>131.7584887394948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>232.6961289392736</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.839588425939253</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4307,13 +4307,13 @@
         <v>181.8429936158255</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E2" t="n">
-        <v>21.94754772250908</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F2" t="n">
         <v>15.00204697330561</v>
@@ -4328,13 +4328,13 @@
         <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
@@ -4367,13 +4367,13 @@
         <v>750.1023486652805</v>
       </c>
       <c r="W2" t="n">
+        <v>750.1023486652805</v>
+      </c>
+      <c r="X2" t="n">
         <v>560.6825636487955</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>371.2627786323105</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>181.8429936158255</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330561</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330561</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>276.0998629391042</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330561</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264288</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264288</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099438</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934589</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="W3" t="n">
-        <v>108.6784525769739</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330561</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330561</v>
+        <v>409.3994882033918</v>
       </c>
     </row>
     <row r="4">
@@ -4477,10 +4477,10 @@
         <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I4" t="n">
         <v>15.00204697330561</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.9401750551695</v>
+        <v>460.2868822458814</v>
       </c>
       <c r="C5" t="n">
-        <v>503.9401750551695</v>
+        <v>460.2868822458814</v>
       </c>
       <c r="D5" t="n">
-        <v>503.9401750551695</v>
+        <v>102.0211836391309</v>
       </c>
       <c r="E5" t="n">
-        <v>118.1519224569253</v>
+        <v>102.0211836391309</v>
       </c>
       <c r="F5" t="n">
-        <v>111.2064217077218</v>
+        <v>95.07568288992745</v>
       </c>
       <c r="G5" t="n">
-        <v>98.65839817752055</v>
+        <v>82.52765935972621</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489125</v>
+        <v>82.52765935972621</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121586</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235857</v>
+        <v>238.2046462235836</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190658</v>
+        <v>454.7669823190627</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643108</v>
+        <v>727.4037457643068</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453894</v>
+        <v>1009.065865453888</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831936</v>
+        <v>1261.69615683193</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.80926485578</v>
+        <v>1442.809264855773</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744562</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="U5" t="n">
-        <v>1276.993164825151</v>
+        <v>1530.644919744555</v>
       </c>
       <c r="V5" t="n">
-        <v>1276.993164825151</v>
+        <v>1199.582032400984</v>
       </c>
       <c r="W5" t="n">
-        <v>1276.993164825151</v>
+        <v>846.8133771308701</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.993164825151</v>
+        <v>846.8133771308701</v>
       </c>
       <c r="Y5" t="n">
-        <v>890.46666994016</v>
+        <v>460.2868822458814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520.7757449145429</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="C6" t="n">
-        <v>520.7757449145429</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="D6" t="n">
-        <v>520.7757449145429</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="E6" t="n">
-        <v>361.5382899090874</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="F6" t="n">
-        <v>361.5382899090874</v>
+        <v>313.0567095068876</v>
       </c>
       <c r="G6" t="n">
-        <v>258.8140524589639</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="H6" t="n">
-        <v>258.8140524589639</v>
+        <v>77.54688951908831</v>
       </c>
       <c r="I6" t="n">
-        <v>258.8140524589639</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="J6" t="n">
-        <v>277.3833205868259</v>
+        <v>49.18216652275275</v>
       </c>
       <c r="K6" t="n">
-        <v>387.275982211778</v>
+        <v>159.0748281477044</v>
       </c>
       <c r="L6" t="n">
-        <v>581.3627685184453</v>
+        <v>353.1616144543709</v>
       </c>
       <c r="M6" t="n">
-        <v>827.2097618282976</v>
+        <v>599.0086077642223</v>
       </c>
       <c r="N6" t="n">
-        <v>1093.972238426249</v>
+        <v>865.771084362173</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034621</v>
+        <v>1087.586838970544</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486925</v>
+        <v>1246.280471422847</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744562</v>
+        <v>1302.443765680485</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.644919744562</v>
+        <v>1251.938857051814</v>
       </c>
       <c r="S6" t="n">
-        <v>1386.140845659509</v>
+        <v>1107.434782966761</v>
       </c>
       <c r="T6" t="n">
-        <v>1386.140845659509</v>
+        <v>911.5224021523678</v>
       </c>
       <c r="U6" t="n">
-        <v>1386.140845659509</v>
+        <v>911.5224021523678</v>
       </c>
       <c r="V6" t="n">
-        <v>1150.988737427766</v>
+        <v>676.370293920625</v>
       </c>
       <c r="W6" t="n">
-        <v>896.7513806995648</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="X6" t="n">
-        <v>896.7513806995648</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="Y6" t="n">
-        <v>688.991081934611</v>
+        <v>459.5912674800027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489125</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489125</v>
+        <v>178.5259919772842</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489125</v>
+        <v>178.5259919772842</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489125</v>
+        <v>30.6128983948911</v>
       </c>
       <c r="K7" t="n">
-        <v>51.4905488171327</v>
+        <v>51.49054881713226</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363487</v>
+        <v>108.1125511363479</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055989</v>
+        <v>171.0707966055976</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221361</v>
+        <v>240.3895616221344</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645254</v>
+        <v>284.1035717645234</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354698</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="U7" t="n">
-        <v>251.4054775384214</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="V7" t="n">
-        <v>251.4054775384214</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="W7" t="n">
-        <v>251.4054775384214</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="X7" t="n">
-        <v>251.4054775384214</v>
+        <v>302.4464881354675</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489125</v>
+        <v>302.4464881354675</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>828.7780017465204</v>
+        <v>835.308259524301</v>
       </c>
       <c r="C8" t="n">
-        <v>828.7780017465204</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405388</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405388</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>1951.682005031307</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.517173786454</v>
+        <v>1598.913349761192</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.517173786454</v>
+        <v>1225.447591500113</v>
       </c>
       <c r="Y8" t="n">
-        <v>1215.377841810642</v>
+        <v>835.308259524301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>562.4988242296017</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>562.4988242296017</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>413.5644145683505</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>254.326959562895</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>254.326959562895</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4509657780109</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1400.563316948358</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1400.563316948358</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1146.325960220157</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>938.4744600146237</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>730.7141612496698</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>131.3639384920873</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>131.3639384920873</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809306</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>271.3587474361104</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361104</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>299.4967678970689</v>
       </c>
     </row>
     <row r="11">
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,19 +5121,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1051.622995973711</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>882.686813045804</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>732.5701736334682</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>584.6570800510751</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>437.7671325531647</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1824.417283336614</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038364</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1868.398285759938</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,13 +5534,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5467179762944</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>815.6105350483875</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>665.4938956360518</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>517.5808020536587</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>370.6908545557483</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1166.195182806534</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.930277414128</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.513107377167</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.52355647915</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356195</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C28" t="n">
-        <v>666.6476097656489</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>404.5827636181052</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>237.3866643329852</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>95.67483317518324</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7430,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345475</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,19 +7731,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345469</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1003545949128</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6338786378785</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>133.1076787337708</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>63.37899546984312</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482795</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.57372264691736</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012282</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>68.29586847696697</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012299</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>178.2123075861776</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.6960474398175052</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.56111625485163</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>84.24553961896834</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>33.76564955277408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>79.42624789262628</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.704326028209812e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1083213.701723659</v>
+        <v>1083213.70172366</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1306073.214664306</v>
+        <v>1306073.214664305</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1306073.214664305</v>
+        <v>1306073.214664306</v>
       </c>
     </row>
     <row r="12">
@@ -26314,7 +26314,7 @@
         <v>101551.284536593</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26366,10 +26366,10 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996522</v>
+        <v>216004.0468996502</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960598</v>
+        <v>167084.5112960617</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742652</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.6701083831</v>
+        <v>50221.67010838268</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064542</v>
+        <v>59784.02116064582</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969922</v>
+        <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468112</v>
+        <v>221112.0537468117</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="L4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.4992699732</v>
       </c>
       <c r="M4" t="n">
         <v>23427.49926997315</v>
       </c>
       <c r="N4" t="n">
-        <v>23427.49926997313</v>
+        <v>23427.49926997316</v>
       </c>
       <c r="O4" t="n">
         <v>23427.49926997317</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.4992699732</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.9759879012</v>
+        <v>72511.97598790107</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743118.5712928585</v>
+        <v>-743478.6543085759</v>
       </c>
       <c r="C6" t="n">
-        <v>-386471.8111547221</v>
+        <v>-386471.8111547206</v>
       </c>
       <c r="D6" t="n">
-        <v>-303330.3177611872</v>
+        <v>-303330.3177611891</v>
       </c>
       <c r="E6" t="n">
-        <v>-596930.387451551</v>
+        <v>-596965.1253769867</v>
       </c>
       <c r="F6" t="n">
-        <v>4512.820122714082</v>
+        <v>4478.082197278418</v>
       </c>
       <c r="G6" t="n">
-        <v>4512.820122714111</v>
+        <v>4478.082197278418</v>
       </c>
       <c r="H6" t="n">
-        <v>4512.820122714125</v>
+        <v>4478.082197278418</v>
       </c>
       <c r="I6" t="n">
-        <v>4512.820122714067</v>
+        <v>4478.082197278418</v>
       </c>
       <c r="J6" t="n">
-        <v>-44552.12460583057</v>
+        <v>-44586.8625312662</v>
       </c>
       <c r="K6" t="n">
-        <v>-45708.84998566897</v>
+        <v>-45743.58791110426</v>
       </c>
       <c r="L6" t="n">
-        <v>-63219.37080489157</v>
+        <v>-63219.370804892</v>
       </c>
       <c r="M6" t="n">
         <v>-160581.7301958441</v>
       </c>
       <c r="N6" t="n">
-        <v>-3435.349644246031</v>
+        <v>-3435.349644246075</v>
       </c>
       <c r="O6" t="n">
+        <v>-3435.349644246075</v>
+      </c>
+      <c r="P6" t="n">
         <v>-3435.34964424606</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-3435.349644246075</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836632</v>
+        <v>716.4483122836617</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,7 +26790,7 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361406</v>
+        <v>382.6612299361387</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707584</v>
+        <v>167.9783713707569</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540209</v>
+        <v>137.2623522540224</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27012,10 +27012,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698205</v>
+        <v>195.1356427698186</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900226</v>
+        <v>159.4537267900245</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734852</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698203</v>
+        <v>195.1356427698186</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900228</v>
+        <v>159.4537267900242</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698205</v>
+        <v>195.1356427698186</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900226</v>
+        <v>159.4537267900245</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>183.7861473724514</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>264.3732630002918</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>34.56655463822267</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409147</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437708</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>113.0333436558459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>73.49127351643202</v>
       </c>
       <c r="J4" t="n">
         <v>57.06999962825414</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172733996091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>242.6129682729739</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476397</v>
+        <v>48.04158853957745</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724301</v>
+        <v>34.66253762724338</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926213</v>
+        <v>143.3876437926214</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719912972</v>
+        <v>3.576708719914848</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.10548232154434</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075471</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295512</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238338</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399978858403</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>37.08374698470348</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>44.56552990202641</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037442</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037894</v>
+        <v>35.65413415037912</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.3213064746127</v>
+        <v>43.32130647461292</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106941</v>
+        <v>119.2023528106942</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443857</v>
@@ -27828,7 +27828,7 @@
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>235.7179585396146</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>74.03871162676114</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>113.1422148155221</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
-        <v>57.45932929338537</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>22.03937091262921</v>
       </c>
       <c r="J10" t="n">
         <v>18.15430933923925</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28068,16 +28068,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>136.3638922652783</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,13 +28141,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.889835540309613e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.061875451984413e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88019422023583</v>
+        <v>2.880194220235824</v>
       </c>
       <c r="H5" t="n">
-        <v>29.4967890579902</v>
+        <v>29.49678905799014</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756419</v>
+        <v>111.0386876756417</v>
       </c>
       <c r="J5" t="n">
-        <v>244.452884199741</v>
+        <v>244.4528841997405</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423237</v>
+        <v>366.371505542323</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098661</v>
+        <v>454.5162494098652</v>
       </c>
       <c r="M5" t="n">
-        <v>505.736903373985</v>
+        <v>505.736903373984</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022301</v>
+        <v>513.9202552022291</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247601</v>
+        <v>485.280323924759</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126879</v>
+        <v>414.1755291126871</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004922</v>
+        <v>311.0285736004915</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868891</v>
+        <v>180.9230001868887</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362404</v>
+        <v>65.6324257936239</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908235</v>
+        <v>12.60805019908232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188663</v>
+        <v>0.2304155376188659</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044106</v>
+        <v>1.541039766044103</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574176</v>
+        <v>14.88319984574173</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704488</v>
+        <v>53.05772878704477</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594565</v>
+        <v>145.5944631594562</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844116</v>
+        <v>248.8441274844111</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754977</v>
+        <v>334.601638675497</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945964</v>
+        <v>390.4643301945956</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519712</v>
+        <v>400.7987591519704</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306781</v>
+        <v>366.6525622306773</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510012</v>
+        <v>294.2710058510006</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462617</v>
+        <v>196.7123743462612</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158058</v>
+        <v>95.67964442158038</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963502</v>
+        <v>28.62413775963496</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572511</v>
+        <v>6.211471688572499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344807</v>
+        <v>0.1013841951344805</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29195597297054</v>
+        <v>1.291955972970537</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513808</v>
+        <v>11.48666310513806</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351407</v>
+        <v>38.85263962351399</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901717</v>
+        <v>91.34128728901699</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505772</v>
+        <v>150.101793950577</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178201</v>
+        <v>192.0786180178197</v>
       </c>
       <c r="M7" t="n">
-        <v>202.519971290282</v>
+        <v>202.5199712902816</v>
       </c>
       <c r="N7" t="n">
-        <v>197.704499027392</v>
+        <v>197.7044990273916</v>
       </c>
       <c r="O7" t="n">
-        <v>182.612104252236</v>
+        <v>182.6121042522357</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036369</v>
+        <v>156.2562024036366</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548331</v>
+        <v>108.1836951548329</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647536</v>
+        <v>58.09103856647524</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258659</v>
+        <v>22.51526909258654</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874124</v>
+        <v>5.520175520874113</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839317</v>
+        <v>0.07047032579839303</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>539.5330155967683</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>204.3779992811859</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305471</v>
+        <v>63.4069796730542</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973432</v>
+        <v>146.2816544973424</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398788</v>
+        <v>218.7498344398779</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467123</v>
+        <v>275.3906701467113</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056392</v>
+        <v>284.5071916056382</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030733</v>
+        <v>255.1821125030723</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574184</v>
+        <v>182.9425333574175</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604268</v>
+        <v>88.72288372604206</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278983</v>
+        <v>18.75683649278955</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100526</v>
+        <v>111.0026885100521</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956235</v>
+        <v>196.0472588956228</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725781</v>
+        <v>248.3302962725772</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686378</v>
+        <v>269.4570470686371</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862336</v>
+        <v>224.0563177862329</v>
       </c>
       <c r="P6" t="n">
-        <v>160.296598436671</v>
+        <v>160.2965984366704</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024015</v>
+        <v>56.73060026023973</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004187</v>
+        <v>21.08853578004158</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658185</v>
+        <v>57.19394173658145</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267695</v>
+        <v>63.59418734267652</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215877</v>
+        <v>70.01895456215837</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039325</v>
+        <v>44.15556580039288</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448929</v>
+        <v>18.52819835448895</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>405.558608182438</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409637</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>77.54037261451921</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
